--- a/polyeXplore model feature & index.xlsx
+++ b/polyeXplore model feature & index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29221"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\15 Polyexplore\predictions_polyprop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sibabrata\eXplore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4902FF8-E2F4-40D6-AA52-4C15F1972304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A221D276-6A33-400B-A407-25CF5A007796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1F4F3997-3C34-49AE-B682-D2C07066B72A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{1F4F3997-3C34-49AE-B682-D2C07066B72A}"/>
   </bookViews>
   <sheets>
     <sheet name="polyFeature" sheetId="1" r:id="rId1"/>
@@ -596,9 +596,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03BD70B-AF4D-4947-95C7-1CD35A894D05}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1215,7 +1215,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
@@ -1779,7 +1779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74EF734-0B43-4183-A2CD-23DE79C2939E}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>

--- a/polyeXplore model feature & index.xlsx
+++ b/polyeXplore model feature & index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29322"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sibabrata\eXplore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\15 Polyexplore\predictions_polyprop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A221D276-6A33-400B-A407-25CF5A007796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3457220A-8D7E-4852-8BA5-DA6FB6D59B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{1F4F3997-3C34-49AE-B682-D2C07066B72A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1F4F3997-3C34-49AE-B682-D2C07066B72A}"/>
   </bookViews>
   <sheets>
     <sheet name="polyFeature" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>Polymer</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>PPSU</t>
   </si>
 </sst>
 </file>
@@ -594,11 +597,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03BD70B-AF4D-4947-95C7-1CD35A894D05}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1218,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
@@ -1227,7 +1230,7 @@
         <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G18" s="3">
         <v>2</v>
@@ -1242,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -1767,6 +1770,41 @@
         <v>5</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>7</v>
+      </c>
+      <c r="D34" s="3">
+        <v>5</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>-2</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
+        <v>2</v>
+      </c>
+      <c r="K34" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1779,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74EF734-0B43-4183-A2CD-23DE79C2939E}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
